--- a/reporte_comparacion.xlsx
+++ b/reporte_comparacion.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,12 +448,34 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Ruta extraída</t>
+          <t>Archivo extraído</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Archivo extraído</t>
+          <t>Clave comparación</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>__xid-336194778_1.png.xml</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>336194778_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/IMG/HR3.png</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>hr3.png</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>hr3.png</t>
         </is>
       </c>
     </row>
@@ -489,12 +511,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Ruta extraída</t>
+          <t>Archivo extraído</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Archivo extraído</t>
+          <t>Clave comparación</t>
         </is>
       </c>
     </row>
@@ -509,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,12 +552,3818 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Ruta extraída</t>
+          <t>Archivo extraído</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Archivo extraído</t>
+          <t>Clave comparación</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>__xid-323360519_1.xml</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>323360519_1#/courses/GDP8900_AUX/courseBanner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>coursebanner</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>coursebanner</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>__xid-323360520_1.xml</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>323360520_1#/courses/GDP8900_AUX/courseBanner_thumbnail</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>coursebanner_thumbnail</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>coursebanner_thumbnail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>__xid-323360521_1.xml</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>323360521_1#/courses/GDP8900_AUX/externalFiles_20211021042654</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>externalfiles_20211021042654</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>externalfiles_20211021042654</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>__xid-323360530_1.xml</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>323360530_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>gdp8900_ultra_importedcontent_20211202123055</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>gdp8900_ultra_importedcontent_20211202123055</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>__xid-323360560_1.xml</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>323360560_1#/courses/GDP8900_AUX/READ_ONLY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>read_only</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>read_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>__xid-1004_1.xml</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1004_1#/institution</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>institution</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>institution</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>__xid-61456272_1.xml</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>61456272_1#/institution/DUOC_Coaching_Ultra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>duoc_coaching_ultra</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>duoc_coaching_ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>__xid-336187648_1.xml</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>336187648_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>gdp8900_ols</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>gdp8900_ols</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>__xid-61458571_1.xml</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>61458571_1#/institution/DUOC_Coaching_Ultra/PCT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>__xid-336187654_1.xml</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>336187654_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ra</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>__xid-336187655_1.xml</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>336187655_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/MD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>md</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>md</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>__xid-336187656_1.xml</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>336187656_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/IMG</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>__xid-336194751_1.xml</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>336194751_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ea1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ea1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>__xid-336194769_1.xml</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>336194769_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ea2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ea2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>__xid-336194786_1.xml</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>336194786_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ea3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>__xid-336194752_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>336194752_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA1/1.1.3_Taller_Analisis_de_la_planificacion_de_una_empresa_veterinaria.docx</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1.1.3_taller_analisis_de_la_planificacion_de_una_empresa_veterinaria.docx</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.1.3_taller_analisis_de_la_planificacion_de_una_empresa_veterinaria.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>__xid-336194753_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>336194753_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA1/1.1.5_Retroalimentacion_orientacion_docentes_Empleabilidad.docx</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1.1.5_retroalimentacion_orientacion_docentes_empleabilidad.docx</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.1.5_retroalimentacion_orientacion_docentes_empleabilidad.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>__xid-336194754_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>336194754_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA1/1.1.4_Orientaciones_al_docente_para_la_retroalimentacion.docx</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.1.4_orientaciones_al_docente_para_la_retroalimentacion.docx</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.1.4_orientaciones_al_docente_para_la_retroalimentacion.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>__xid-336194755_1.pptx.xml</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>336194755_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA1/1.2.1_Ppt_Analisis_interno_y_externo_en_las_organizaciones.pptx</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.2.1_ppt_analisis_interno_y_externo_en_las_organizaciones.pptx</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.2.1_ppt_analisis_interno_y_externo_en_las_organizaciones.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>__xid-336194756_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>336194756_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA1/1.2.2_Taller_Presentacion_del_analisis_FODA_de_una_empresa_del_rubro_veterinario.docx</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.2.2_taller_presentacion_del_analisis_foda_de_una_empresa_del_rubro_veterinario.docx</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.2.2_taller_presentacion_del_analisis_foda_de_una_empresa_del_rubro_veterinario.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>__xid-336194757_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>336194757_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA1/1.2.3_Taller_Elaboracion_del_analisis_PEST_de_una_empresa_del_rubro_veterinario.docx</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.2.3_taller_elaboracion_del_analisis_pest_de_una_empresa_del_rubro_veterinario.docx</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.2.3_taller_elaboracion_del_analisis_pest_de_una_empresa_del_rubro_veterinario.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>__xid-336194758_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>336194758_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA1/1.2.4_Evaluacion_formativa_EA1.docx</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1.2.4_evaluacion_formativa_ea1.docx</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.2.4_evaluacion_formativa_ea1.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>__xid-336194759_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>336194759_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA1/1.3.1_Evaluacion_sumativa_EA1.docx</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1.3.1_evaluacion_sumativa_ea1.docx</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.3.1_evaluacion_sumativa_ea1.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>__xid-336194760_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>336194760_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA1/1.1.1_Reflexion_inicial_estudiantes.docx</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1.1.1_reflexion_inicial_estudiantes.docx</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.1.1_reflexion_inicial_estudiantes.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>__xid-336194763_1.pptx.xml</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>336194763_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA1/1.1.2_Ppt_Planificacion_de_Proyectos_Veterinarios.pptx</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1.1.2_ppt_planificacion_de_proyectos_veterinarios.pptx</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.1.2_ppt_planificacion_de_proyectos_veterinarios.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>__xid-336194770_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>336194770_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA2/2.1.1_Reflexion_desarrollo_estudiantes.docx</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2.1.1_reflexion_desarrollo_estudiantes.docx</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.1.1_reflexion_desarrollo_estudiantes.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>__xid-336194771_1.pptx.xml</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>336194771_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA2/2.1.2_Ppt_Gestion_de_Planificacion_de_Proyectos_Veterinarios_EDT.pptx</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2.1.2_ppt_gestion_de_planificacion_de_proyectos_veterinarios_edt.pptx</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.1.2_ppt_gestion_de_planificacion_de_proyectos_veterinarios_edt.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>__xid-336194772_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>336194772_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA2/2.1.3_Taller_EDT_de_una_empresa_veterinaria.docx</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2.1.3_taller_edt_de_una_empresa_veterinaria.docx</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.1.3_taller_edt_de_una_empresa_veterinaria.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>__xid-336194774_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>336194774_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA2/2.2.2_Taller_Planificando_el_trabajo_a_traves_de_una_Carta_Gantt.docx</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2.2.2_taller_planificando_el_trabajo_a_traves_de_una_carta_gantt.docx</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.2.2_taller_planificando_el_trabajo_a_traves_de_una_carta_gantt.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>__xid-336194775_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>336194775_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA2/2.2.3_Evaluacion_formativa_EA2.docx</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2.2.3_evaluacion_formativa_ea2.docx</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.2.3_evaluacion_formativa_ea2.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>__xid-336194776_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>336194776_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA2/2.3.1_Evaluacion_sumativa_EA2.docx</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2.3.1_evaluacion_sumativa_ea2.docx</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.3.1_evaluacion_sumativa_ea2.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>__xid-336194787_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>336194787_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA3/3.1.2_Taller_Gestion_de_Recursos_analisis_de_empresas_veterinarias.docx</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3.1.2_taller_gestion_de_recursos_analisis_de_empresas_veterinarias.docx</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.1.2_taller_gestion_de_recursos_analisis_de_empresas_veterinarias.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>__xid-336194788_1.pptx.xml</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>336194788_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA3/3.2.1_ppt_Control_de_Gestion_y_Presupuestos.pptx</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3.2.1_ppt_control_de_gestion_y_presupuestos.pptx</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.2.1_ppt_control_de_gestion_y_presupuestos.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>__xid-336194789_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>336194789_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA3/3.2.2_Analisis_de_caso_empresarial.docx</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3.2.2_analisis_de_caso_empresarial.docx</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.2.2_analisis_de_caso_empresarial.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>__xid-336194790_1.pptx.xml</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>336194790_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA3/3.2.3_ppt_Control_de_Gestion_en_las_empresas_mediante_herramientas.pptx</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3.2.3_ppt_control_de_gestion_en_las_empresas_mediante_herramientas.pptx</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.2.3_ppt_control_de_gestion_en_las_empresas_mediante_herramientas.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>__xid-336194791_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>336194791_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA3/3.2.7_Evaluacion_formativa_EA3.docx</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3.2.7_evaluacion_formativa_ea3.docx</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.2.7_evaluacion_formativa_ea3.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>__xid-336194792_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>336194792_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA3/3.3.1_Co_Autoevaluacion_Resolucion_de_Problemas .docx</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3.3.1_co_autoevaluacion_resolucion_de_problemas .docx</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.3.1_co_autoevaluacion_resolucion_de_problemas .docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>__xid-336194793_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>336194793_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA3/3.3.2_Pauta_AutoCo_especialidad_y_Empleabilidad.docx</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>3.3.2_pauta_autoco_especialidad_y_empleabilidad.docx</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.3.2_pauta_autoco_especialidad_y_empleabilidad.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>__xid-336194794_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>336194794_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA3/3.3.3_Evaluacion_sumativa_EA3.docx</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3.3.3_evaluacion_sumativa_ea3.docx</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.3.3_evaluacion_sumativa_ea3.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>__xid-336194795_1.pptx.xml</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>336194795_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA3/3.4.1_ppt_Sintesis_de_Gestion_de_Planificacion_de_Proyectos_veterinarios.pptx</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3.4.1_ppt_sintesis_de_gestion_de_planificacion_de_proyectos_veterinarios.pptx</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.4.1_ppt_sintesis_de_gestion_de_planificacion_de_proyectos_veterinarios.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>__xid-336194796_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>336194796_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA3/3.4.2_Reflexion_final_estudiantes.docx</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3.4.2_reflexion_final_estudiantes.docx</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.4.2_reflexion_final_estudiantes.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>__xid-336194797_1.pptx.xml</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>336194797_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA3/3.1.1_ppt_Gestion_de_Recursos_en_proyectos_veterinarios.pptx</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3.1.1_ppt_gestion_de_recursos_en_proyectos_veterinarios.pptx</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.1.1_ppt_gestion_de_recursos_en_proyectos_veterinarios.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>__xid-336219852_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>336219852_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA3/3.2.5_Rubrica_foro.docx</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3.2.5_rubrica_foro.docx</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.2.5_rubrica_foro.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>__xid-336219853_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>336219853_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA3/3.2.6_Pauta_mediatizacion_Foro_Registros.docx</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3.2.6_pauta_mediatizacion_foro_registros.docx</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.2.6_pauta_mediatizacion_foro_registros.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>__xid-336219854_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>336219854_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/RA/EA3/3.2.4_Foro_Recursos_Materiales_Financieros_y_Humanos.docx</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>3.2.4_foro_recursos_materiales_financieros_y_humanos.docx</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.2.4_foro_recursos_materiales_financieros_y_humanos.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>__xid-336194750_1.pdf.xml</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>336194750_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/MD/PA221_GDP8900.pdf</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>pa221_gdp8900.pdf</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>pa221_gdp8900.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>__xid-336194749_1.png.xml</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>336194749_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/IMG/HR1.png</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>hr1.png</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>hr1.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>__xid-336194777_1.png.xml</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>336194777_1#/institution/DUOC_Coaching_Ultra/GDP8900_OLS/IMG/HR2.png</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>hr2.png</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>hr2.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>__xid-61831915_1.xml</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>61831915_1#/institution/DUOC_Coaching_Ultra/PCT/A_PLANTILLAS</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>a_plantillas</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>a_plantillas</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>__xid-184803225_1.xml</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>184803225_1#/institution/DUOC_Coaching_Ultra/PCT/A_PLANTILLAS/documentos</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>documentos</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>documentos</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>__xid-184803226_1.xml</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>184803226_1#/institution/DUOC_Coaching_Ultra/PCT/A_PLANTILLAS/documentos/Docentes</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>docentes</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>docentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>__xid-222813742_1.pdf.xml</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>222813742_1#/institution/DUOC_Coaching_Ultra/PCT/A_PLANTILLAS/documentos/Docentes/Orientaciones para elaborar pruebas_dirigido al docente en sede.pdf</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>orientaciones para elaborar pruebas_dirigido al docente en sede.pdf</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>orientaciones para elaborar pruebas_dirigido al docente en sede.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>__xid-315098938_1.pdf.xml</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>315098938_1#/institution/DUOC_Coaching_Ultra/PCT/A_PLANTILLAS/documentos/Docentes/Orientaciones para elaborar pruebas escritas.pdf</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>orientaciones para elaborar pruebas escritas.pdf</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>orientaciones para elaborar pruebas escritas.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>__xid-323360522_1.xml</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>323360522_1#/courses/GDP8900_AUX/externalFiles_20211021042654/institution</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>institution</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>institution</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>__xid-323360523_1.xml</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>323360523_1#/courses/GDP8900_AUX/externalFiles_20211021042654/institution/DUOC_CONTENIDO</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>duoc_contenido</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>duoc_contenido</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>__xid-323360524_1.xml</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>323360524_1#/courses/GDP8900_AUX/externalFiles_20211021042654/institution/DUOC_CONTENIDO/ESC_ADM_NEG</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>esc_adm_neg</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>esc_adm_neg</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>__xid-323360525_1.xml</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>323360525_1#/courses/GDP8900_AUX/externalFiles_20211021042654/institution/DUOC_CONTENIDO/ESC_ADM_NEG/ADA1111</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ada1111</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ada1111</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>__xid-323360526_1.xml</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>323360526_1#/courses/GDP8900_AUX/externalFiles_20211021042654/institution/DUOC_CONTENIDO/ESC_ADM_NEG/ADA1111/RA</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ra</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ra</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>__xid-323360527_1.xml</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>323360527_1#/courses/GDP8900_AUX/externalFiles_20211021042654/institution/DUOC_CONTENIDO/ESC_ADM_NEG/ADA1111/RA/EA3</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ea3</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>__xid-323360528_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>323360528_1#/courses/GDP8900_AUX/externalFiles_20211021042654/institution/DUOC_CONTENIDO/ESC_ADM_NEG/ADA1111/RA/EA3/RA10_Act4_Rubrica_Evaluacion_Exp3.docx</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ra10_act4_rubrica_evaluacion_exp3.docx</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>ra10_act4_rubrica_evaluacion_exp3.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>__xid-323360529_1.docx.xml</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>323360529_1#/courses/GDP8900_AUX/externalFiles_20211021042654/institution/DUOC_CONTENIDO/ESC_ADM_NEG/ADA1111/RA/EA3/RA11_Act4_Pauta_retroalimentacion_Exp3.docx</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ra11_act4_pauta_retroalimentacion_exp3.docx</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ra11_act4_pauta_retroalimentacion_exp3.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>__xid-323360531_1.xml</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>323360531_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>externalfiles_20211202122700</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>externalfiles_20211202122700</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>__xid-323360532_1.xml</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>323360532_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>institution</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>institution</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>__xid-323360533_1.xml</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>323360533_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>duoc_contenido</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>duoc_contenido</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>__xid-323360534_1.xml</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>323360534_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>esc_rrnn</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>esc_rrnn</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>__xid-323360535_1.xml</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>323360535_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>gdp8900</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>gdp8900</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>__xid-323360536_1.xml</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>323360536_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/PA_PDA_PIA</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>pa_pda_pia</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>pa_pda_pia</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>__xid-323360538_1.xml</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>323360538_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ra</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>ra</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>__xid-323360537_1.pdf.xml</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>323360537_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/PA_PDA_PIA/PA221_GDP8900.pdf</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>pa221_gdp8900.pdf</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>pa221_gdp8900.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>__xid-323360539_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>323360539_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/BI_LINK.html</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>bi_link.html</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>bi_link.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>__xid-323360540_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>323360540_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA1A1.html</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ra_ea1a1.html</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>ra_ea1a1.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>__xid-323360541_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>323360541_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA1A1docente.html</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ra_ea1a1docente.html</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>ra_ea1a1docente.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>__xid-323360542_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>323360542_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA1A2.html</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ra_ea1a2.html</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>ra_ea1a2.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>__xid-323360543_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>323360543_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA1A2docente.html</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ra_ea1a2docente.html</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>ra_ea1a2docente.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>__xid-323360544_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>323360544_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA1A3.html</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ra_ea1a3.html</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>ra_ea1a3.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>__xid-323360545_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>323360545_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA1A3docente.html</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ra_ea1a3docente.html</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>ra_ea1a3docente.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>__xid-323360546_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>323360546_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA2A1.html</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ra_ea2a1.html</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>ra_ea2a1.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>__xid-323360547_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>323360547_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA2A1docente.html</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ra_ea2a1docente.html</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>ra_ea2a1docente.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>__xid-323360548_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>323360548_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA2A2.html</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ra_ea2a2.html</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>ra_ea2a2.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>__xid-323360549_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>323360549_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA2A2docente.html</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ra_ea2a2docente.html</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ra_ea2a2docente.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>__xid-323360550_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>323360550_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA2A3.html</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ra_ea2a3.html</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>ra_ea2a3.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>__xid-323360551_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>323360551_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA2A3docente.html</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ra_ea2a3docente.html</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ra_ea2a3docente.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>__xid-323360552_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>323360552_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA3A1.html</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ra_ea3a1.html</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ra_ea3a1.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>__xid-323360553_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>323360553_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA3A1docente.html</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ra_ea3a1docente.html</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>ra_ea3a1docente.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>__xid-323360554_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>323360554_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA3A2.html</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ra_ea3a2.html</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>ra_ea3a2.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>__xid-323360555_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>323360555_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA3A2docente.html</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ra_ea3a2docente.html</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>ra_ea3a2docente.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>__xid-323360556_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>323360556_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA3A3.html</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ra_ea3a3.html</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>ra_ea3a3.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>__xid-323360557_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>323360557_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA3A3docente.html</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ra_ea3a3docente.html</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>ra_ea3a3docente.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>__xid-323360558_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>323360558_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA3A4.html</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ra_ea3a4.html</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>ra_ea3a4.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>__xid-323360559_1.html.xml</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>323360559_1#/courses/GDP8900_AUX/GDP8900_ultra_ImportedContent_20211202123055/externalFiles_20211202122700/institution/DUOC_CONTENIDO/ESC_RRNN/GDP8900/RA/RA_EA3A4docente.html</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ra_ea3a4docente.html</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>ra_ea3a4docente.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>__xid-323360561_1.xml</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>323360561_1#/courses/GDP8900_AUX/READ_ONLY/content</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>__xid-323360562_1.xml</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>323360562_1#/courses/GDP8900_AUX/READ_ONLY/content/_42692718_1</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>_42692718_1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>_42692718_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>__xid-323360564_1.xml</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>323360564_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920576_1</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>_42920576_1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>_42920576_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>__xid-323360567_1.xml</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>323360567_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920592_1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>_42920592_1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>_42920592_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>__xid-323360569_1.xml</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>323360569_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920595_1</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>_42920595_1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>_42920595_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>__xid-323360572_1.xml</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>323360572_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920604_1</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>_42920604_1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>_42920604_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>__xid-323360575_1.xml</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>323360575_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920613_1</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>_42920613_1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>_42920613_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>__xid-323360578_1.xml</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>323360578_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920622_1</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>_42920622_1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>_42920622_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>__xid-323360583_1.xml</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>323360583_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920625_1</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>_42920625_1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>_42920625_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>__xid-323360588_1.xml</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>323360588_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920626_1</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>_42920626_1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>_42920626_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>__xid-323360591_1.xml</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>323360591_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920627_1</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>_42920627_1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>_42920627_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>__xid-323360595_1.xml</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>323360595_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920628_1</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>_42920628_1</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>_42920628_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>__xid-323360598_1.xml</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>323360598_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920630_1</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>_42920630_1</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>_42920630_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>__xid-323360702_1.xml</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>323360702_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920632_1</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>_42920632_1</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>_42920632_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>__xid-323360707_1.xml</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>323360707_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920634_1</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>_42920634_1</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>_42920634_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>__xid-323360710_1.xml</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>323360710_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920636_1</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>_42920636_1</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>_42920636_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>__xid-323360713_1.xml</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>323360713_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920638_1</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>_42920638_1</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>_42920638_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>__xid-323360718_1.xml</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>323360718_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920639_1</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>_42920639_1</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>_42920639_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>__xid-323360722_1.xml</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>323360722_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920640_1</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>_42920640_1</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>_42920640_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>__xid-323360726_1.xml</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>323360726_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920641_1</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>_42920641_1</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>_42920641_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>__xid-323360730_1.xml</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>323360730_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920642_1</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>_42920642_1</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>_42920642_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>__xid-323360733_1.xml</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>323360733_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920644_1</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>_42920644_1</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>_42920644_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>__xid-323360736_1.xml</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>323360736_1#/courses/GDP8900_AUX/READ_ONLY/content/_51837048_1</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>_51837048_1</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>_51837048_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>__xid-323360738_1.xml</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>323360738_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080676_1</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>_81080676_1</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>_81080676_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>__xid-323360740_1.xml</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>323360740_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080675_1</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>_81080675_1</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>_81080675_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>__xid-323360742_1.xml</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>323360742_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080674_1</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>_81080674_1</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>_81080674_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>__xid-323360744_1.xml</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>323360744_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080673_1</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>_81080673_1</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>_81080673_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>__xid-323360746_1.xml</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>323360746_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080672_1</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>_81080672_1</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>_81080672_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>__xid-323360748_1.xml</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>323360748_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080670_1</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>_81080670_1</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>_81080670_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>__xid-323360750_1.xml</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>323360750_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080669_1</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>_81080669_1</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>_81080669_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>__xid-323360752_1.xml</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>323360752_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080667_1</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>_81080667_1</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>_81080667_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>__xid-323360754_1.xml</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>323360754_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080666_1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>_81080666_1</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>_81080666_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>__xid-323360756_1.xml</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>323360756_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080664_1</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>_81080664_1</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>_81080664_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>__xid-323360758_1.xml</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>323360758_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080663_1</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>_81080663_1</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>_81080663_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>__xid-323360760_1.xml</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>323360760_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080661_1</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>_81080661_1</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>_81080661_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>__xid-323360762_1.xml</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>323360762_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080660_1</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>_81080660_1</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>_81080660_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>__xid-323360764_1.xml</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>323360764_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080659_1</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>_81080659_1</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>_81080659_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>__xid-323360766_1.xml</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>323360766_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080658_1</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>_81080658_1</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>_81080658_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>__xid-323360768_1.xml</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>323360768_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080649_1</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>_81080649_1</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>_81080649_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>__xid-323360770_1.xml</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>323360770_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080642_1</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>_81080642_1</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>_81080642_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>__xid-323360772_1.xml</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>323360772_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080635_1</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>_81080635_1</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>_81080635_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>__xid-323360774_1.xml</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>323360774_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080619_1</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>_81080619_1</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>_81080619_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>__xid-323360563_1.xml</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>323360563_1#/courses/GDP8900_AUX/READ_ONLY/content/_42692718_1/embedded</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>__xid-323360565_1.xml</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>323360565_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920576_1/embedded</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>__xid-323360568_1.xml</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>323360568_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920592_1/embedded</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>__xid-323360570_1.xml</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>323360570_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920595_1/embedded</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>__xid-323360573_1.xml</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>323360573_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920604_1/embedded</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>__xid-323360576_1.xml</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>323360576_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920613_1/embedded</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>__xid-323360579_1.xml</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>323360579_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920622_1/embedded</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>__xid-323360584_1.xml</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>323360584_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920625_1/embedded</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>__xid-323360589_1.xml</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>323360589_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920626_1/embedded</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>__xid-323360592_1.xml</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>323360592_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920627_1/embedded</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>__xid-323360596_1.xml</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>323360596_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920628_1/embedded</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>__xid-323360599_1.xml</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>323360599_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920630_1/embedded</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>__xid-323360703_1.xml</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>323360703_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920632_1/embedded</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>__xid-323360708_1.xml</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>323360708_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920634_1/embedded</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>__xid-323360711_1.xml</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>323360711_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920636_1/embedded</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>__xid-323360714_1.xml</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>323360714_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920638_1/embedded</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>__xid-323360719_1.xml</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>323360719_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920639_1/embedded</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>__xid-323360723_1.xml</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>323360723_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920640_1/embedded</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>__xid-323360727_1.xml</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>323360727_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920641_1/embedded</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>__xid-323360731_1.xml</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>323360731_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920642_1/embedded</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>__xid-323360734_1.xml</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>323360734_1#/courses/GDP8900_AUX/READ_ONLY/content/_42920644_1/embedded</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>__xid-323360737_1.xml</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>323360737_1#/courses/GDP8900_AUX/READ_ONLY/content/_51837048_1/embedded</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>__xid-323360739_1.xml</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>323360739_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080676_1/embedded</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>__xid-323360741_1.xml</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>323360741_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080675_1/embedded</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>__xid-323360743_1.xml</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>323360743_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080674_1/embedded</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>__xid-323360745_1.xml</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>323360745_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080673_1/embedded</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>__xid-323360747_1.xml</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>323360747_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080672_1/embedded</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>__xid-323360749_1.xml</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>323360749_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080670_1/embedded</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>__xid-323360751_1.xml</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>323360751_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080669_1/embedded</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>__xid-323360753_1.xml</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>323360753_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080667_1/embedded</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>__xid-323360755_1.xml</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>323360755_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080666_1/embedded</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>__xid-323360757_1.xml</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>323360757_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080664_1/embedded</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>__xid-323360759_1.xml</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>323360759_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080663_1/embedded</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>__xid-323360761_1.xml</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>323360761_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080661_1/embedded</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>__xid-323360763_1.xml</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>323360763_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080660_1/embedded</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>__xid-323360765_1.xml</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>323360765_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080659_1/embedded</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>__xid-323360767_1.xml</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>323360767_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080658_1/embedded</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>__xid-323360769_1.xml</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>323360769_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080649_1/embedded</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>__xid-323360771_1.xml</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>323360771_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080642_1/embedded</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>__xid-323360773_1.xml</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>323360773_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080635_1/embedded</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>__xid-323360775_1.xml</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>323360775_1#/courses/GDP8900_AUX/READ_ONLY/content/_81080619_1/embedded</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>embedded</t>
         </is>
       </c>
     </row>
